--- a/Key words/OtherSkils.xlsx
+++ b/Key words/OtherSkils.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Key words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4ACE13-1AF5-494E-91CC-F43949949D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D3C542-A0C9-459D-8E65-7146D84FD060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
